--- a/gui/template/Teacher Base Template.xlsx
+++ b/gui/template/Teacher Base Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruele\PycharmProjects\RueLee\BostonEdu_Invoice_2023\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruele\PycharmProjects\RueLee\Boston Education\bosvoiceton-gui\gui\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B8C2D8-BCCC-4536-BE50-76C6D9CDE645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59C1B4C-09D5-4C0C-B3F7-F870BCAAC3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="root" sheetId="3" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>4311 Wilshire Blvd., #530A</t>
-  </si>
-  <si>
     <t>Los Angeles, CA 90010</t>
   </si>
   <si>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t>4211 Wilshire Blvd., Suite 136</t>
   </si>
 </sst>
 </file>
@@ -996,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1013,7 +1013,7 @@
   <sheetData>
     <row r="1" spans="2:10" ht="33" thickBot="1">
       <c r="C1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
@@ -1021,35 +1021,35 @@
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1">
       <c r="F2" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1">
       <c r="B3" s="30" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="F3" s="16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="23"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1">
       <c r="B4" s="30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
       <c r="F4" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -1059,7 +1059,7 @@
     <row r="6" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:10" ht="16.5" thickBot="1">
       <c r="B7" s="45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="46"/>
@@ -1078,22 +1078,22 @@
     <row r="9" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:10" ht="16.5" thickBot="1">
       <c r="B10" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="D10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="G10" s="14" t="s">
         <v>9</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="2:10">
@@ -1303,7 +1303,7 @@
       <c r="C36" s="38"/>
       <c r="D36" s="38"/>
       <c r="E36" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="36"/>
@@ -1319,7 +1319,7 @@
     <row r="38" spans="2:7">
       <c r="B38" s="5"/>
       <c r="C38" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
@@ -1337,7 +1337,7 @@
     <row r="40" spans="2:7" ht="18.75">
       <c r="B40" s="3"/>
       <c r="C40" s="39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
@@ -1354,13 +1354,13 @@
     </row>
     <row r="42" spans="2:7" ht="19.5" thickBot="1">
       <c r="B42" s="42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
       <c r="E42" s="44"/>
       <c r="F42" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G42" s="35">
         <f>SUM(G11:G35)</f>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="43" spans="2:7">
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/gui/template/Teacher Base Template.xlsx
+++ b/gui/template/Teacher Base Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruele\PycharmProjects\RueLee\Boston Education\bosvoiceton-gui\gui\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59C1B4C-09D5-4C0C-B3F7-F870BCAAC3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDC157D-B917-4830-B24A-9DAA3BB1D03A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -578,7 +578,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -994,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:W43"/>
+  <dimension ref="B1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A35" sqref="A25:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1020,89 +1019,89 @@
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="2:10" ht="19.5" thickBot="1">
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="F3" s="16" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="F3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="F4" s="15" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="F4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="7" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1"/>
     <row r="10" spans="2:10" ht="16.5" thickBot="1">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="3"/>
@@ -1110,7 +1109,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="32"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="5"/>
@@ -1118,7 +1117,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="33"/>
+      <c r="G13" s="32"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="3"/>
@@ -1126,8 +1125,8 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="32"/>
-      <c r="J14" s="9"/>
+      <c r="G14" s="31"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="5"/>
@@ -1135,7 +1134,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="33"/>
+      <c r="G15" s="32"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="3"/>
@@ -1143,232 +1142,143 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="32"/>
-    </row>
-    <row r="17" spans="2:23">
+      <c r="G16" s="31"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="5"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="2:23">
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="2:7">
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" spans="2:23">
+      <c r="G18" s="31"/>
+    </row>
+    <row r="19" spans="2:7">
       <c r="B19" s="5"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="2:23">
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="2:7">
       <c r="B20" s="3"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" spans="2:23">
+      <c r="G20" s="31"/>
+    </row>
+    <row r="21" spans="2:7">
       <c r="B21" s="5"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="2:23">
+      <c r="G21" s="32"/>
+    </row>
+    <row r="22" spans="2:7">
       <c r="B22" s="3"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" spans="2:23">
+      <c r="G22" s="31"/>
+    </row>
+    <row r="23" spans="2:7">
       <c r="B23" s="3"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" spans="2:23">
-      <c r="B24" s="24"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" spans="2:23">
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" spans="2:23">
-      <c r="B26" s="5"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="33"/>
-    </row>
-    <row r="27" spans="2:23">
-      <c r="B27" s="3"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" spans="2:23" ht="15.75" thickBot="1">
-      <c r="B28" s="5"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="33"/>
-    </row>
-    <row r="29" spans="2:23" ht="15.75" thickBot="1">
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="23"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75">
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="35"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="5"/>
+      <c r="C27" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="3"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="2:7" ht="18.75">
       <c r="B29" s="3"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="32"/>
-      <c r="W29" s="8"/>
-    </row>
-    <row r="30" spans="2:23">
-      <c r="B30" s="5"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="33"/>
-    </row>
-    <row r="31" spans="2:23">
-      <c r="B31" s="3"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" spans="2:23">
-      <c r="B32" s="5"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="33"/>
-    </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="3"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="32"/>
-    </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="5"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="33"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="3"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="32"/>
-    </row>
-    <row r="36" spans="2:7" ht="15.75">
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="36"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="3"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="5"/>
-      <c r="C38" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="3"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="2:7" ht="18.75">
-      <c r="B40" s="3"/>
-      <c r="C40" s="39" t="s">
+      <c r="C29" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="2:7" ht="19.5" thickBot="1">
-      <c r="B42" s="42" t="s">
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" thickBot="1">
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="28"/>
+    </row>
+    <row r="31" spans="2:7" ht="19.5" thickBot="1">
+      <c r="B31" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="15" t="s">
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="35">
-        <f>SUM(G11:G35)</f>
+      <c r="G31" s="34">
+        <f>SUM(G11:G24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
-      <c r="B43" t="s">
+    <row r="32" spans="2:7">
+      <c r="B32" t="s">
         <v>14</v>
       </c>
     </row>
